--- a/datos/informacion/abogados.xlsx
+++ b/datos/informacion/abogados.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
   <si>
     <r>
       <rPr>
@@ -496,12 +496,21 @@
   <si>
     <t>Ignacio Ruiz Tagle</t>
   </si>
+  <si>
+    <t>Derecho Bancario y Fianciero</t>
+  </si>
+  <si>
+    <t>Fianciamiento de proyectos; derivados, administración de activos; OPA</t>
+  </si>
+  <si>
+    <t>Due diligence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -517,9 +526,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -644,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -710,7 +716,7 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -740,10 +746,10 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -752,64 +758,49 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -818,27 +809,26 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1368,10 +1358,10 @@
         <v>36</v>
       </c>
       <c r="H12" s="30"/>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="38"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="24"/>
       <c r="L12" s="26"/>
     </row>
@@ -1398,10 +1388,10 @@
         <v>43</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="28"/>
       <c r="L13" s="26">
         <v>7.0</v>
@@ -1423,17 +1413,17 @@
       <c r="E14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="38"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="24"/>
       <c r="L14" s="26"/>
     </row>
@@ -1456,12 +1446,14 @@
       <c r="F15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="43"/>
+      <c r="G15" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="H15" s="30"/>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="45"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="24"/>
       <c r="L15" s="26"/>
     </row>
@@ -1490,10 +1482,10 @@
       <c r="H16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="47"/>
+      <c r="J16" s="44"/>
       <c r="K16" s="24"/>
       <c r="L16" s="26"/>
     </row>
@@ -1520,10 +1512,10 @@
         <v>57</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="24"/>
       <c r="L17" s="26"/>
     </row>
@@ -1535,7 +1527,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="26">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D18" s="27">
         <v>12.0</v>
@@ -1546,15 +1538,15 @@
       <c r="F18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="26"/>
-      <c r="T18" s="50"/>
+      <c r="T18" s="47"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -1566,22 +1558,22 @@
       <c r="C19" s="26">
         <v>3.0</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="43"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="52"/>
-      <c r="T19" s="50"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="26"/>
+      <c r="T19" s="47"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -1602,15 +1594,15 @@
       <c r="F20" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="43"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="30"/>
       <c r="I20" s="35" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="28"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="52"/>
-      <c r="T20" s="50"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="26"/>
+      <c r="T20" s="47"/>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -1635,10 +1627,10 @@
         <v>67</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="46" t="s">
         <v>69</v>
       </c>
       <c r="K21" s="24" t="s">
@@ -1647,7 +1639,7 @@
       <c r="L21" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="T21" s="50"/>
+      <c r="T21" s="47"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -1668,12 +1660,12 @@
       <c r="F22" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="43"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="53" t="s">
+      <c r="J22" s="46" t="s">
         <v>75</v>
       </c>
       <c r="K22" s="24">
@@ -1682,7 +1674,7 @@
       <c r="L22" s="26">
         <v>7.0</v>
       </c>
-      <c r="T22" s="50"/>
+      <c r="T22" s="47"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -1694,7 +1686,7 @@
       <c r="C23" s="2">
         <v>5.0</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="49">
         <v>13.0</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -1703,13 +1695,13 @@
       <c r="F23" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="43"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="T23" s="50"/>
+      <c r="J23" s="46"/>
+      <c r="T23" s="47"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -1721,7 +1713,7 @@
       <c r="C24" s="2">
         <v>20.0</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="49">
         <v>16.0</v>
       </c>
       <c r="E24" s="20" t="s">
@@ -1730,12 +1722,12 @@
       <c r="F24" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="55"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="T24" s="50"/>
+      <c r="T24" s="47"/>
     </row>
     <row r="25" ht="18.0" customHeight="1">
       <c r="A25" s="2">
@@ -1747,7 +1739,7 @@
       <c r="C25" s="2">
         <v>20.0</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="49">
         <v>8.0</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -1760,58 +1752,60 @@
         <v>81</v>
       </c>
       <c r="H25" s="30"/>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="52"/>
       <c r="T25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="58">
+      <c r="A26" s="53">
         <v>21.0</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="53">
         <v>10.0</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60" t="s">
+      <c r="D26" s="53">
+        <v>11.0</v>
+      </c>
+      <c r="E26" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="62" t="s">
+      <c r="I26" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -1823,66 +1817,72 @@
       <c r="C27" s="2">
         <v>10.0</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="49">
+        <v>7.0</v>
+      </c>
       <c r="E27" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="43"/>
+      <c r="G27" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="H27" s="30"/>
       <c r="I27" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="65"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28">
-      <c r="A28" s="58">
+      <c r="A28" s="53">
         <v>23.0</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="53">
         <v>16.0</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60" t="s">
+      <c r="D28" s="53">
+        <v>20.0</v>
+      </c>
+      <c r="E28" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="67" t="s">
+      <c r="I28" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -1894,19 +1894,23 @@
       <c r="C29" s="2">
         <v>5.0</v>
       </c>
-      <c r="D29" s="64"/>
+      <c r="D29" s="49">
+        <v>3.0</v>
+      </c>
       <c r="E29" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="43"/>
+      <c r="G29" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="H29" s="30"/>
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J29" s="45"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -1917,6 +1921,21 @@
       </c>
       <c r="C30" s="2">
         <v>10.0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="I30" s="28"/>
     </row>
